--- a/source/excel/nwsl-2016/nwsl-2016-crs-orl-050116.xlsx
+++ b/source/excel/nwsl-2016/nwsl-2016-crs-orl-050116.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1142,7 +1142,278 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1754,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A1458" workbookViewId="0">
+      <selection activeCell="O1463" sqref="O1463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45909,7 +46180,7 @@
         <v>20</v>
       </c>
       <c r="L696" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M696" s="8" t="s">
         <v>20</v>
@@ -94939,85 +95210,85 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576 L1:L1048576">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="comeau">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="comeau">
       <formula>NOT(ISERROR(SEARCH("comeau",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="da costa">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="da costa">
       <formula>NOT(ISERROR(SEARCH("da costa",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="hoy">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="hoy">
       <formula>NOT(ISERROR(SEARCH("hoy",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="huerta">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="huerta">
       <formula>NOT(ISERROR(SEARCH("huerta",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="press">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="press">
       <formula>NOT(ISERROR(SEARCH("press",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="colaprico">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="colaprico">
       <formula>NOT(ISERROR(SEARCH("colaprico",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="dibernardo">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="dibernardo">
       <formula>NOT(ISERROR(SEARCH("dibernardo",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="mautz">
+    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="mautz">
       <formula>NOT(ISERROR(SEARCH("mautz",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="gilliland">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="gilliland">
       <formula>NOT(ISERROR(SEARCH("gilliland",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="naughton">
+    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="naughton">
       <formula>NOT(ISERROR(SEARCH("naughton",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="johnson">
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="johnson">
       <formula>NOT(ISERROR(SEARCH("johnson",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="short">
+    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="short">
       <formula>NOT(ISERROR(SEARCH("short",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="naeher">
+    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="naeher">
       <formula>NOT(ISERROR(SEARCH("naeher",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="witteman">
+    <cfRule type="containsText" dxfId="40" priority="14" operator="containsText" text="witteman">
       <formula>NOT(ISERROR(SEARCH("witteman",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="edwards">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="edwards">
       <formula>NOT(ISERROR(SEARCH("edwards",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="spencer">
+    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="spencer">
       <formula>NOT(ISERROR(SEARCH("spencer",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="belanger">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="belanger">
       <formula>NOT(ISERROR(SEARCH("belanger",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="hagen">
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="hagen">
       <formula>NOT(ISERROR(SEARCH("hagen",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="morgan">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="morgan">
       <formula>NOT(ISERROR(SEARCH("morgan",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="sanderson">
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="sanderson">
       <formula>NOT(ISERROR(SEARCH("sanderson",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="kyle">
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="kyle">
       <formula>NOT(ISERROR(SEARCH("kyle",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="alleway">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="alleway">
       <formula>NOT(ISERROR(SEARCH("alleway",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="catley">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="catley">
       <formula>NOT(ISERROR(SEARCH("catley",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="edmonds">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="edmonds">
       <formula>NOT(ISERROR(SEARCH("edmonds",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="evans">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="evans">
       <formula>NOT(ISERROR(SEARCH("evans",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="26" operator="containsText" text="hickmann alves">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="hickmann alves">
       <formula>NOT(ISERROR(SEARCH("hickmann alves",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="27" operator="containsText" text="Harris">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Harris">
       <formula>NOT(ISERROR(SEARCH("Harris",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
